--- a/biology/Microbiologie/Geoglobus/Geoglobus.xlsx
+++ b/biology/Microbiologie/Geoglobus/Geoglobus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geoglobus est un genre d'archées hyperthermophiles de la famille des Archaeoglobaceae qui comprend (au 1er juillet 2013) une seule espèce, Geoglobus ahangari, isolée à partir de sources hydrothermales dans le golfe de Californie.
 Les cellules de G ahangari sont recouvertes d'une couche S et possèdent un unique flagelle. Elles sont anaérobies et utilisent le fer ferrique Fe3+ comme accepteur final d'électrons. Elles peuvent se développer de façon autotrophe en utilisant l'hydrogène H2 ou de façon hétérotrophe en métabolisant une grande variété de composés organiques, y compris différents types d'acides gras, comme sources d'énergie. Cette archée est la première identifiée à être capable de produire de l'énergie en utilisant l'hydrogène pour réduire le fer, et c'est également la première identifiée capable de métaboliser les acides gras à longue chaîne.
